--- a/biology/Zoologie/Bulimulus_lherminieri/Bulimulus_lherminieri.xlsx
+++ b/biology/Zoologie/Bulimulus_lherminieri/Bulimulus_lherminieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulimulus lherminieri est une espèce d'escargot de la famille des Bulimulidae, endémique de l'île de Basse-Terre, en Guadeloupe.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulimulus lherminieri est un escargot dont la longueur de coquille atteint 2,7 cm[1]. Cette coquille est très fine, de couleur brune, à dernier tour très haut dépassant en longueur les autres réunis. L'ouverture est allongée, représentant la moitié de la hauteur de la coquille, de forme ovoïde, à columelle courte et bord palatin habituellement aplati [1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulimulus lherminieri est un escargot dont la longueur de coquille atteint 2,7 cm. Cette coquille est très fine, de couleur brune, à dernier tour très haut dépassant en longueur les autres réunis. L'ouverture est allongée, représentant la moitié de la hauteur de la coquille, de forme ovoïde, à columelle courte et bord palatin habituellement aplati ,.
 Le corps de l’animal est brun rouge foncé à extrémités noires.
-L’espèce a été mise en synonymie avec une autre espèce de Guadeloupe, Bulimulus semicinctus Pilsbry, 1897 [2], bien que la pertinence de cette synonymie soit aujourd’hui questionnée [3],[4].
-Le nom de l'espèce est une dédicace au Dr Ferdinand Joseph L'Herminier, qui a collecté le type[1].
+L’espèce a été mise en synonymie avec une autre espèce de Guadeloupe, Bulimulus semicinctus Pilsbry, 1897 , bien que la pertinence de cette synonymie soit aujourd’hui questionnée ,.
+Le nom de l'espèce est une dédicace au Dr Ferdinand Joseph L'Herminier, qui a collecté le type.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La localité type est la Basse-Terre et, plus exactement, les montages de Petit-Bourg, au-delà de 800 m d’altitude [1].
-L'espèce est réputée rare et, ce, dès le XIXe siècle, avec une distribution limitée à la frange haute de la forêt altimontaine et aux formations de fourré qui s’y substituent plus en hauteur[5]. Cette espèce de litière se trouve en particulier dans les feuilles des grandes bromaliacés de montagne présentes dans les formations de fourré d’altitude [5]. Elle se rencontre également dans la litière et sur le bois mort [6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La localité type est la Basse-Terre et, plus exactement, les montages de Petit-Bourg, au-delà de 800 m d’altitude .
+L'espèce est réputée rare et, ce, dès le XIXe siècle, avec une distribution limitée à la frange haute de la forêt altimontaine et aux formations de fourré qui s’y substituent plus en hauteur. Cette espèce de litière se trouve en particulier dans les feuilles des grandes bromaliacés de montagne présentes dans les formations de fourré d’altitude . Elle se rencontre également dans la litière et sur le bois mort .
 </t>
         </is>
       </c>
